--- a/Documentatie/Kerntaak-2/2.1.2_Normalisatie/07-03-2017_Normalisatie_V1.xlsx
+++ b/Documentatie/Kerntaak-2/2.1.2_Normalisatie/07-03-2017_Normalisatie_V1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TARIK\Documents\GitHub\WindowsApp\Documentatie\Kerntaak-2\2.1.2 normalisatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TARIK\Documents\GitHub\WebSentimentWindowsApp\Documentatie\Kerntaak-2\2.1.2_Normalisatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="54">
   <si>
     <t>categoryID</t>
   </si>
@@ -59,9 +59,6 @@
     <t>pageImage</t>
   </si>
   <si>
-    <t>Normalisatie Database E-Tool</t>
-  </si>
-  <si>
     <t>stap 0</t>
   </si>
   <si>
@@ -71,24 +68,9 @@
     <t>tbl_Categories</t>
   </si>
   <si>
-    <t>•categoryID</t>
-  </si>
-  <si>
-    <t>•categoryName</t>
-  </si>
-  <si>
-    <t>•categoryDescription</t>
-  </si>
-  <si>
-    <t>•categoryImage</t>
-  </si>
-  <si>
     <t>tbl_Pages</t>
   </si>
   <si>
-    <t>•categoryParentID</t>
-  </si>
-  <si>
     <t>tbl_P_Regels</t>
   </si>
   <si>
@@ -117,6 +99,57 @@
   </si>
   <si>
     <t>pageType</t>
+  </si>
+  <si>
+    <t>•brandParentID</t>
+  </si>
+  <si>
+    <t>•brandName</t>
+  </si>
+  <si>
+    <t>•brandImage</t>
+  </si>
+  <si>
+    <t>•brandID</t>
+  </si>
+  <si>
+    <t>Strokendiagram:</t>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t>↓</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> │</t>
+  </si>
+  <si>
+    <t>Bachmandiagram:</t>
+  </si>
+  <si>
+    <t>Normalisatie Database WebSentiment app</t>
+  </si>
+  <si>
+    <t>pageTitle</t>
+  </si>
+  <si>
+    <t>pageTextOne</t>
+  </si>
+  <si>
+    <t>pageTextTwo</t>
+  </si>
+  <si>
+    <t>•pageOrderID</t>
+  </si>
+  <si>
+    <t>•pageID</t>
+  </si>
+  <si>
+    <t>•parentID</t>
+  </si>
+  <si>
+    <t>•pageTitle</t>
   </si>
   <si>
     <r>
@@ -136,35 +169,95 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>brandID</t>
+      <t>clientID</t>
     </r>
   </si>
   <si>
-    <t>•brandParentID</t>
-  </si>
-  <si>
-    <t>•brandName</t>
-  </si>
-  <si>
-    <t>•brandImage</t>
-  </si>
-  <si>
-    <t>•brandID</t>
-  </si>
-  <si>
-    <t>Strokendiagram:</t>
-  </si>
-  <si>
-    <t>↑</t>
-  </si>
-  <si>
-    <t>↓</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> │</t>
-  </si>
-  <si>
-    <t>Bachmandiagram:</t>
+    <t>•clientNameID</t>
+  </si>
+  <si>
+    <t>•clientImage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>•service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <t>•serviceTitle</t>
+  </si>
+  <si>
+    <t>•serviceText</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>serviceImage</t>
+    </r>
+  </si>
+  <si>
+    <t>•projectID</t>
+  </si>
+  <si>
+    <t>•projectName</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>projectImageOne</t>
+    </r>
+  </si>
+  <si>
+    <t>•projectImageTwo</t>
+  </si>
+  <si>
+    <t>•projectImageThree</t>
   </si>
 </sst>
 </file>
@@ -573,28 +666,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -602,32 +695,32 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H6" s="8"/>
       <c r="J6" s="5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="H7" s="8"/>
       <c r="P7" s="8"/>
@@ -635,7 +728,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -650,21 +743,21 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>5</v>
@@ -686,43 +779,43 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
+      <c r="A11" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>15</v>
+      <c r="A13" t="s">
+        <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>1</v>
@@ -731,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>2</v>
@@ -745,168 +838,181 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="9" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
       <c r="K22" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
       <c r="K23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="D27" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
       <c r="D28" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>7</v>
-      </c>
       <c r="D31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>8</v>
+      <c r="A32" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>9</v>
+      <c r="A33" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>10</v>
-      </c>
-      <c r="D34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -917,18 +1023,18 @@
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -936,10 +1042,10 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
         <v>22</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -950,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
